--- a/vaccine-1.xlsx
+++ b/vaccine-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rizkeesakundee/playground/exco-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7AA2F7-225C-034D-9156-7ACA8ABC05B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766373F4-EEF6-FB4D-9699-A3AA94C478B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19240" yWindow="500" windowWidth="20180" windowHeight="10760" xr2:uid="{8F769959-3544-C740-AEBC-F35B883DEC4F}"/>
   </bookViews>
